--- a/DIETARYINDEX_SERVING_SIZE_CHART_JAMES_ZHAN_BH_FINAL.xlsx
+++ b/DIETARYINDEX_SERVING_SIZE_CHART_JAMES_ZHAN_BH_FINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./Research rotation/Microbiome research/Diet score/dietaryindex_package/Version_control/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./Research rotation/Microbiome research/Diet score/dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4502FC00-EE9D-EE4D-B7B1-B10CF7815964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C917B295-CBA0-434B-A8BE-19D52AC7116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="500" windowWidth="38380" windowHeight="27160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18400" yWindow="500" windowWidth="45180" windowHeight="27160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2015" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="MED" sheetId="7" r:id="rId6"/>
     <sheet name="MEDI" sheetId="6" r:id="rId7"/>
     <sheet name="DII" sheetId="11" r:id="rId8"/>
+    <sheet name="ACS 2020_V1" sheetId="13" r:id="rId9"/>
+    <sheet name="ACS 2020_V2" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="295">
   <si>
     <t>Component</t>
   </si>
@@ -875,6 +877,102 @@
         GENDER == 2  &amp; ALCOHOL_SERV_AHEI &lt;= 1.5 &amp; ALCOHOL_SERV_AHEI &gt;= 0.5 ~ 10,
         GENDER == 2  &amp; ALCOHOL_SERV_AHEI &lt; 0.5 &amp; ALCOHOL_SERV_AHEI &gt; 0.125 ~ 0 + (ALCOHOL_SERV_AHEI-0)*10/(0.5-0),
         GENDER == 2  &amp; ALCOHOL_SERV_AHEI &lt;= 0.125 ~ 2.5</t>
+  </si>
+  <si>
+    <t>Dietary Constituents</t>
+  </si>
+  <si>
+    <t>Scoring (sex-specific quartiles)</t>
+  </si>
+  <si>
+    <t>Vegetable intake (excludes starchy vegs like potatoes and corn)</t>
+  </si>
+  <si>
+    <t>svgs/d, unit=servings/day (0.5 c of vege; 1 cup of green leafy (1 cup = 236.59 g)</t>
+  </si>
+  <si>
+    <t>Q1= 0
+Q2= 0.25
+Q3= 0.5
+Q4=0.75</t>
+  </si>
+  <si>
+    <t>Unique Vegetable Variety</t>
+  </si>
+  <si>
+    <t># line items</t>
+  </si>
+  <si>
+    <t>Q1=0
+Q2=0.25
+Q3=0.5
+Q4=0.75</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Fruit intake (excluding fruit juices)</t>
+  </si>
+  <si>
+    <t>svgs/d, unit=servings/day (0.5 c of berries; 1 cup other fruits=236.59 g; 1 med fruit; 0.5 medium avocado)</t>
+  </si>
+  <si>
+    <t>Unique Fruit Variety</t>
+  </si>
+  <si>
+    <t>Whole grains</t>
+  </si>
+  <si>
+    <t>svgs/d, unit=grams/day</t>
+  </si>
+  <si>
+    <t>Q1= 0
+Q2= 1
+Q3= 2
+Q4= 3</t>
+  </si>
+  <si>
+    <t>svgs/d, unit=servings/day; 1 srv= 4 oz. unprocessed meat; 1.5 oz. processed meat (1 oz. = 28.35 g)</t>
+  </si>
+  <si>
+    <t>Q1= 3
+Q2= 2
+Q3= 1
+Q4= 0</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>Sugar-sweetened beverages (does not include fruit juices)</t>
+  </si>
+  <si>
+    <t>svgs/d, unit=servings/day = 1 ser= 8oz (1 oz. = 28.35 g)</t>
+  </si>
+  <si>
+    <t>Never (e.g., non-drinkers): &lt;= 0 svgs/d, these people should get 1.5 pts
+ &lt; 3 days per week (&lt;3/7): 1pt
+&gt;=3 to &lt;7 days per week (&gt;=3/7 &amp; &lt;1): 0.5 pts
+Daily or more: 7 days per week (&gt;=1): 0 pts</t>
+  </si>
+  <si>
+    <t>HPF, Refined grains</t>
+  </si>
+  <si>
+    <t>Highly processed foods, refined grains</t>
+  </si>
+  <si>
+    <t>Ratio of calories from these to total calories</t>
+  </si>
+  <si>
+    <t>Q1=1.5
+Q2=1
+Q3=0.5
+Q4=0</t>
+  </si>
+  <si>
+    <t>Svgs/d per 1000 kcal</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1047,6 +1145,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1337,8 +1438,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1716,13 +1817,239 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038598A9-06A1-914C-8F40-D2DD1B5426B5}">
+  <dimension ref="A2:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1787,7 +2114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3375,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5018,4 +5345,230 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60FBCB0-5448-FF4D-B42D-5906F654A994}">
+  <dimension ref="A2:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DIETARYINDEX_SERVING_SIZE_CHART_JAMES_ZHAN_BH_FINAL.xlsx
+++ b/DIETARYINDEX_SERVING_SIZE_CHART_JAMES_ZHAN_BH_FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./Research rotation/Microbiome research/Diet score/dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C917B295-CBA0-434B-A8BE-19D52AC7116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C08F82-0875-2F44-AB99-4E17152DC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="500" windowWidth="45180" windowHeight="27160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="45180" windowHeight="27160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2015" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="296">
   <si>
     <t>Component</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>Svgs/d per 1000 kcal</t>
+  </si>
+  <si>
+    <t>Scoring</t>
   </si>
 </sst>
 </file>
@@ -1143,11 +1146,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1819,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038598A9-06A1-914C-8F40-D2DD1B5426B5}">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1886,7 +1889,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>274</v>
       </c>
@@ -1904,7 +1907,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>277</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1924,7 +1927,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>280</v>
       </c>
@@ -1981,15 +1984,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -1998,44 +2001,51 @@
         <v>1.5</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="F11" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,10 +2270,10 @@
       <c r="C12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="13"/>
       <c r="G12" s="10"/>
     </row>
@@ -5349,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60FBCB0-5448-FF4D-B42D-5906F654A994}">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F12" sqref="A11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5362,7 +5372,7 @@
     <col min="3" max="3" width="25.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -5416,7 +5426,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>274</v>
       </c>
@@ -5434,7 +5444,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>277</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -5454,7 +5464,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>280</v>
       </c>
@@ -5511,15 +5521,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -5528,44 +5538,50 @@
         <v>1.5</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="F11" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DIETARYINDEX_SERVING_SIZE_CHART_JAMES_ZHAN_BH_FINAL.xlsx
+++ b/DIETARYINDEX_SERVING_SIZE_CHART_JAMES_ZHAN_BH_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Desktop/Emory University - Ph.D./Research rotation/Microbiome research/Diet score/dietaryindex_package/dietaryindex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C512A4-18FD-2B48-9A90-38DC4C636442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B7E123-D87C-7943-962E-1FC294A41E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="32360" windowHeight="19540" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="32360" windowHeight="19540" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEI2015" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="DII" sheetId="11" r:id="rId9"/>
     <sheet name="ACS 2020_V1" sheetId="13" r:id="rId10"/>
     <sheet name="ACS 2020_V2" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId12"/>
+    <sheet name="CHH" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1322,7 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1343,7 +1344,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1358,42 +1358,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1403,14 +1388,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1762,20 +1741,19 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9" style="22" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -1805,342 +1783,342 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="31" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="23" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>313</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -2154,12 +2132,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2214,178 +2192,174 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.75</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.75</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.75</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.75</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1.5</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="8"/>
       <c r="F11" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1.5</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2408,7 +2382,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2463,178 +2437,174 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.75</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.75</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.75</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.75</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1.5</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="8"/>
       <c r="F11" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1.5</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2658,7 +2628,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2684,12 +2654,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2702,10 +2672,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2713,127 +2683,127 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="20">
         <v>33</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="20">
         <v>25</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="20">
         <v>50</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="20">
         <v>13.5</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5"/>
+      <c r="C5" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="20">
         <v>5900</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="20">
         <v>3000</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2846,10 +2816,10 @@
       <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2859,12 +2829,9 @@
       </c>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    </row>
+    <row r="14" spans="1:6" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2921,204 +2888,204 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
         <v>250</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="32"/>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32"/>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3191,78 +3158,78 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -3271,86 +3238,85 @@
       <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3362,7 +3328,7 @@
       <c r="E11" s="4">
         <v>90</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3422,148 +3388,147 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3577,15 +3542,14 @@
       <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3637,207 +3601,207 @@
       <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3853,25 +3817,25 @@
       <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3941,182 +3905,180 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="21"/>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>9</v>
       </c>
-      <c r="F11" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4148,16 +4110,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="46.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="22" customWidth="1"/>
-    <col min="8" max="15" width="3.5" style="22" customWidth="1"/>
-    <col min="16" max="37" width="3" style="22" customWidth="1"/>
-    <col min="38" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="37" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4181,204 +4142,204 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4391,15 +4352,15 @@
       <c r="E13" s="4">
         <v>11</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4426,16 +4387,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="46.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="22" customWidth="1"/>
-    <col min="8" max="15" width="3.5" style="22" customWidth="1"/>
-    <col min="16" max="37" width="3" style="22" customWidth="1"/>
-    <col min="38" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="19.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="37" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4448,10 +4408,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -4459,204 +4419,204 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="37">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32"/>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32"/>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="32"/>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32"/>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4669,15 +4629,15 @@
       <c r="E13" s="4">
         <v>55</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4698,75 +4658,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C05161-9A17-7E4B-8481-331629413469}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="24" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="24"/>
-    <col min="6" max="6" width="11.5" style="22"/>
-    <col min="7" max="7" width="21.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="22"/>
-    <col min="12" max="12" width="21.5" style="22" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="22" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="11.5" style="22"/>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="9" t="s">
         <v>242</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -4780,1917 +4737,1917 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2">
         <v>-0.27800000000000002</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2">
         <v>13.98</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2">
         <v>3.72</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="L2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" t="s">
         <v>245</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2">
         <v>100</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2">
         <v>7.98</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3">
         <v>0.106</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3">
         <v>5.15</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3">
         <v>2.7</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="24">
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="22">
+      <c r="L3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" t="s">
         <v>246</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3">
         <v>90</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4">
         <v>1.47</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4">
         <v>0.74</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="24">
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="T4" s="22">
+      <c r="L4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T4">
         <v>75</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4">
         <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5">
         <v>-0.58399999999999996</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5">
         <v>3718</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5">
         <v>1720</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K5" s="24">
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="T5" s="22">
+      <c r="L5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T5">
         <v>50</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5">
         <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6">
         <v>-0.11</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6">
         <v>6.67</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K6" s="24">
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="T6" s="22">
+      <c r="L6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T6">
         <v>25</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6">
         <v>-2.36</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7">
         <v>272.2</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7">
         <v>40</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="24">
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="T7" s="22">
+      <c r="L7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7">
         <v>-3.37</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8">
         <v>0.11</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8">
         <v>279.39999999999998</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8">
         <v>51.2</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="24">
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="T8" s="22">
-        <v>0</v>
-      </c>
-      <c r="U8" s="22">
+      <c r="L8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>-8.8699999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9">
         <v>0.18</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9">
         <v>2056</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9">
         <v>338</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" s="24">
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N9" s="21" t="s">
+      <c r="L9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10">
         <v>0.01</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10">
         <v>0.08</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="24">
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N10" s="21" t="s">
+      <c r="L10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11">
         <v>71.400000000000006</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11">
         <v>19.399999999999999</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K11" s="24">
+      <c r="G11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N11" s="21" t="s">
+      <c r="L11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12">
         <v>-0.66300000000000003</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12">
         <v>18.8</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N12" s="21" t="s">
+      <c r="L12" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13">
         <v>-0.19</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13">
         <v>273</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13">
         <v>70.7</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="24">
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N13" s="21" t="s">
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14">
         <v>-0.41199999999999998</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14">
         <v>2.9</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K14" s="24">
+      <c r="G14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" s="21" t="s">
+      <c r="L14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15">
         <v>-0.45300000000000001</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15">
         <v>59</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15">
         <v>63.2</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="24">
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N15" s="21" t="s">
+      <c r="L15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16">
         <v>13.35</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16">
         <v>3.71</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="24">
+      <c r="G16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N16" s="21" t="s">
+      <c r="L16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17">
         <v>-0.48399999999999999</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17">
         <v>310.10000000000002</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17">
         <v>139.4</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="24">
+      <c r="G17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" s="21" t="s">
+      <c r="L17" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18">
         <v>27</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18">
         <v>6.1</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K18" s="24">
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N18" s="21" t="s">
+      <c r="L18" t="s">
+        <v>198</v>
+      </c>
+      <c r="M18" t="s">
+        <v>199</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19">
         <v>-0.246</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19">
         <v>25.9</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19">
         <v>11.77</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="24">
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N19" s="21" t="s">
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20">
         <v>-0.436</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20">
         <v>1.06</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20">
         <v>1.06</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="24">
+      <c r="G20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N20" s="21" t="s">
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21">
         <v>-0.159</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21">
         <v>10.8</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21">
         <v>7.5</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21" s="24">
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="L21" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N21" s="21" t="s">
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22">
         <v>-0.30099999999999999</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22">
         <v>35.9</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22">
         <v>18.399999999999999</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K22" s="24">
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" s="21" t="s">
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23">
         <v>79.400000000000006</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23">
         <v>13.9</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K23" s="24">
+      <c r="G23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N23" s="21" t="s">
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24">
         <v>-0.33700000000000002</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24">
         <v>13.88</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24">
         <v>3.76</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K24" s="24">
+      <c r="G24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N24" s="21" t="s">
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25">
         <v>1.7</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25">
         <v>0.79</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K25" s="24">
+      <c r="G25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N25" s="21" t="s">
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="s">
+        <v>199</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26">
         <v>0.37</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26">
         <v>1.78</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="24">
+      <c r="G26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N26" s="21" t="s">
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27">
         <v>0.373</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27">
         <v>28.6</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27">
         <v>8</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" s="24">
+      <c r="G27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N27" s="21" t="s">
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" t="s">
+        <v>199</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28">
         <v>-0.191</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28">
         <v>67</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28">
         <v>25.1</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K28" s="24">
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="L28" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N28" s="21" t="s">
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29">
         <v>-9.8000000000000004E-2</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29">
         <v>1.7</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29">
         <v>0.66</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="24">
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="L29" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N29" s="21" t="s">
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="s">
+        <v>199</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30">
         <v>0.22900000000000001</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30">
         <v>3.15</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30">
         <v>3.75</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K30" s="24">
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N30" s="21" t="s">
+      <c r="L30" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" t="s">
+        <v>199</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31">
         <v>-0.78500000000000003</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31">
         <v>533.6</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31">
         <v>754.3</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" s="24">
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N31" s="21" t="s">
+      <c r="L31" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32">
         <v>-0.40100000000000002</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32">
         <v>983.9</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32">
         <v>518.6</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" s="24">
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="L32" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N32" s="21" t="s">
+      <c r="L32" t="s">
+        <v>198</v>
+      </c>
+      <c r="M32" t="s">
+        <v>199</v>
+      </c>
+      <c r="N32" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33">
         <v>118.2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33">
         <v>43.46</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K33" s="24">
+      <c r="G33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N33" s="21" t="s">
+      <c r="L33" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" t="s">
+        <v>199</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34">
         <v>-0.44600000000000001</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34">
         <v>6.26</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34">
         <v>2.21</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K34" s="24">
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="L34" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N34" s="21" t="s">
+      <c r="L34" t="s">
+        <v>198</v>
+      </c>
+      <c r="M34" t="s">
+        <v>199</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35">
         <v>-0.41899999999999998</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35">
         <v>8.73</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35">
         <v>1.49</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K35" s="24">
+      <c r="G35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N35" s="21" t="s">
+      <c r="L35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M35" t="s">
+        <v>199</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+      <c r="A36" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36">
         <v>-0.313</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36">
         <v>9.84</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36">
         <v>2.19</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K36" s="24">
+      <c r="G36" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="L36" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N36" s="21" t="s">
+      <c r="L36" t="s">
+        <v>198</v>
+      </c>
+      <c r="M36" t="s">
+        <v>199</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37">
         <v>-0.53600000000000003</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37">
         <v>1.69</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37">
         <v>1.53</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K37" s="24">
+      <c r="G37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="L37" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N37" s="21" t="s">
+      <c r="L37" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" t="s">
+        <v>199</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38">
         <v>-0.41499999999999998</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38">
         <v>95.8</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38">
         <v>85.9</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K38" s="24">
+      <c r="G38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N38" s="21" t="s">
+      <c r="L38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" t="s">
+        <v>199</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39">
         <v>-0.61599999999999999</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39">
         <v>1.55</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K39" s="24">
+      <c r="G39" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="L39" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N39" s="21" t="s">
+      <c r="L39" t="s">
+        <v>198</v>
+      </c>
+      <c r="M39" t="s">
+        <v>199</v>
+      </c>
+      <c r="N39" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40">
         <v>-0.46700000000000003</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40">
         <v>17.7</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40">
         <v>6.79</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="24">
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M40" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N40" s="21" t="s">
+      <c r="L40" t="s">
+        <v>198</v>
+      </c>
+      <c r="M40" t="s">
+        <v>199</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41">
         <v>-0.25</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41">
         <v>11.7</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41">
         <v>3.82</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K41" s="24">
+      <c r="G41" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="L41" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N41" s="21" t="s">
+      <c r="L41" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" t="s">
+        <v>199</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="A42" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42">
         <v>18.05</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42">
         <v>21.14</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K42" s="24">
+      <c r="G42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K42">
         <v>2</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M42" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N42" s="21" t="s">
+      <c r="L42" t="s">
+        <v>198</v>
+      </c>
+      <c r="M42" t="s">
+        <v>199</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43">
         <v>-0.59299999999999997</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43">
         <v>1.2</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43">
         <v>0.2</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K43" s="24">
+      <c r="G43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="L43" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N43" s="21" t="s">
+      <c r="L43" t="s">
+        <v>198</v>
+      </c>
+      <c r="M43" t="s">
+        <v>199</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="A44" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44">
         <v>10</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44">
         <v>7.07</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="G44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K44">
         <v>2</v>
       </c>
-      <c r="L44" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N44" s="21" t="s">
+      <c r="L44" t="s">
+        <v>198</v>
+      </c>
+      <c r="M44" t="s">
+        <v>199</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45">
         <v>0.33</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45">
         <v>0.99</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K45" s="24">
+      <c r="G45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="L45" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N45" s="21" t="s">
+      <c r="L45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" t="s">
+        <v>199</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="A46" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" t="s">
         <v>191</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46">
         <v>15</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="K46" s="24">
+      <c r="G46" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K46">
         <v>2</v>
       </c>
-      <c r="L46" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M46" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N46" s="21" t="s">
+      <c r="L46" t="s">
+        <v>198</v>
+      </c>
+      <c r="M46" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="A50" t="s">
         <v>250</v>
       </c>
     </row>
